--- a/Fase 2/Evidencias Proyecto/Product Backlog.xlsx
+++ b/Fase 2/Evidencias Proyecto/Product Backlog.xlsx
@@ -5,19 +5,21 @@
   <sheets>
     <sheet state="visible" name="PRODUCT BACKLOG" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="SPRINT 1 BACKLOG" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="SPRINT 2 BACKLOG" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="SPRINT 3 BACKLOG" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="ksSz6YETkG5u1pmEnhzLGxlMMoyC4yod6ZFB6zZVjcs="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="O52v+cGTgFCe9dymstw5LGI7kjPyB5k26OLeddgGm2Q="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="136">
   <si>
     <t>ID</t>
   </si>
@@ -41,7 +43,7 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Levantamiento de Requerimientos</t>
+    <t>Levantamiento de requerimientos</t>
   </si>
   <si>
     <t>Alta</t>
@@ -60,72 +62,105 @@
     <t>Completado</t>
   </si>
   <si>
-    <t>Realizar inspección, limpiezas y mejoras
-de código</t>
+    <t>Revisión de arquitectura y código fuente</t>
   </si>
   <si>
     <t>Media</t>
   </si>
   <si>
-    <t>Inspeccionar el código disponible 
-y realizar limpiezas de código muerto, 
-posteriormente realizar pruebas
-para comprobar rendimiento</t>
-  </si>
-  <si>
-    <t>1. Las pruebas evidencian
-tiempos de espera 
-disminuidos en 1 segundo</t>
+    <t>Realizar inspecciónes de código a través de la herramienta SonarQube y SonarScanner</t>
+  </si>
+  <si>
+    <t>1. Se realiza una inspección de código a través de las herramientas SonarQube y SonarScanner
+2. Se documenta el proceso
+3. Se resuelven todos los problemas críticos
+4. Se reduce una gran parte de los issues detectados por la herramienta</t>
+  </si>
+  <si>
+    <t>Mejora de código fuente</t>
+  </si>
+  <si>
+    <t>- Refactorizaciones de código redundante o poco eficiente
+- Mejoras en seguridad
+- Eliminación de duplicados
+- api_helpers.py
+- Módulo de pago</t>
+  </si>
+  <si>
+    <t>1. Las mejoras están basadas en el análisis de código previo
+2. Los modelos se comunican con el backend a través del archivo api_helpers.py
+3. Pago WebPay implementado en su totalidad</t>
+  </si>
+  <si>
+    <t>Mejoras de front-end</t>
+  </si>
+  <si>
+    <t>- Mejoras al carrito de compras
+- Cambio de paleta de colores del sitio
+- Mejoras visuales del sitio home
+- Mejoras product-detail
+- Mejoras de experiencia de usuario</t>
+  </si>
+  <si>
+    <t>1. El sitio tiene un aspecto renovado y fresco, con mejoras de experiencia de usuario y una mejora general de aspecto visual
+2. Las funcionalidades del sitio se mantienen</t>
+  </si>
+  <si>
+    <t>Mejoras al módulo de reportes</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Implementar mayor reportabilidad dentro del panel de reporte de ventas, agregando indicadores de utilidad para el negocio</t>
+  </si>
+  <si>
+    <t>1. El módulo ofrece nueva información relevante 
+2. La información mostrada es la información actual en la base de datos</t>
+  </si>
+  <si>
+    <t>Módulo de dashboards</t>
+  </si>
+  <si>
+    <t>Agregar distintos gráficos con interactividad que muestren indicadores de rendimiento de valor para el negocio</t>
+  </si>
+  <si>
+    <t>1. Al menos un gráfico posee cualidades interactivas
+2. Agregar 3 gráficos 
+3. Poseer variedad de gráficos (torta, barra, trazabilidad)</t>
+  </si>
+  <si>
+    <t>Implementación del proyecto</t>
+  </si>
+  <si>
+    <t>Adquirir un dominio web para hospedar el sitio en la nube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Se puede acceder a la página desde cualquier navegador </t>
   </si>
   <si>
     <t>Pendiente</t>
   </si>
   <si>
-    <t>Realizar mejoras de front-end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al agregar productos/categorias/etc, el formulario podría abrirse en un modal para que sea más amigable con el usuario.
-Al agregar un producto al carrito desde el inicio o catálogo que se abra el sidecart en vez de redireccionar a la página del carrito
-Cambiar el boton de “mostrar carrito” a un icono de carrito que diga “ver carrito” al lado
-Iniciar sesión desde modal
-Donde sale el nombre del usuario poner el icono de usuario con un mensaje de bienvenida 
-Embellecer la página de contacto o hacer el form más grande horizontalmente y agregarlo al final del home, con un boton de redireccion a esa sección
-</t>
-  </si>
-  <si>
-    <t>1. Modal para agregar productos.
-2. Agregar Sidecart
-3. Cambiar ícono carrito
-4. Login Modal
-5. Ícono usuario
-6. Mejoras contacto</t>
-  </si>
-  <si>
-    <t>Implementar módulo de dashboard</t>
-  </si>
-  <si>
-    <t>Integrar al sistema un módulo de reportes
-de ventas que contenga distintas
-gráficas que otorguen información de 
-valor al cliente</t>
-  </si>
-  <si>
-    <t>1. El usuario puede visualizar
-sus dashboard en tiempo real
-2. Se muestran al menos 3
-gráficos con información relevante</t>
-  </si>
-  <si>
-    <t>Implementar pago mediante Webpay</t>
-  </si>
-  <si>
-    <t>Implementar al sistema el medio de pago
-webpay</t>
-  </si>
-  <si>
-    <t>1. El usuario podrá realizar sus 
-compras mediante Webpay con 
-sus tarjetas de débito</t>
+    <t>Módulo de pruebas</t>
+  </si>
+  <si>
+    <t>Probar distintas funcionalidades, incluye adjunto de resultados de las pruebas realizadas</t>
+  </si>
+  <si>
+    <t>1. Obtener al menos un 90% de éxito en las pruebas realizadas
+2. Generar un documento de plan de pruebas
+3. Generar un documento que detalle todas las pruebas realizadas con sus resultados</t>
+  </si>
+  <si>
+    <t>Puesta en marcha</t>
+  </si>
+  <si>
+    <t>Inaugurar el sitio oficialmente con la empresa Conejo Furioso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Inaugurar el sitio con el personal
+2. El sistema debe estar funcionando en su totalidad, con el sistema de pagos funcionando </t>
   </si>
   <si>
     <t>Selección herramienta de inspección</t>
@@ -197,13 +232,323 @@
   </si>
   <si>
     <t>1. Los tiempos de respuesta de la página deben disminuir en 1 segundo</t>
+  </si>
+  <si>
+    <t>MEJORAS DE CÓDIGO</t>
+  </si>
+  <si>
+    <t>Accesibilidad y semántica</t>
+  </si>
+  <si>
+    <t>- Corregir etiquetas &lt;label&gt; y &lt;th&gt; para mejorar la compatibilidad con lectores de pantalla
+- Eliminados &lt;center&gt; y reemplazados por text-align: center; en CSS
+- Reemplazados enlaces &lt;a&gt; que ejecutaban acciones con botones &lt;button&gt;
+- Añadidos títulos específicos en todas las vistas</t>
+  </si>
+  <si>
+    <t>1. Añadir títulos específicos en todas las vistas
+2. Eliminar redundancias de código
+3. Reemplazar todos los enlaces &lt;a&gt; que ejecuten acciones con &lt;button&gt;</t>
+  </si>
+  <si>
+    <t>Completada</t>
+  </si>
+  <si>
+    <t>Refactorización del código</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">- Centralizadas y reutilizadas las llamadas a las APIs en </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>views.py</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> para reducir depuración
+- Eliminados estilos y elementos obsoletos, reorganizando el código para mayor claridad
+- Limpieza de código manual</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Reducir tiempos de depuración
+2. Reorganización de código CSS
+3. Reducción de volumen de código</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>- Movida la SECRET_KEY a una variable de entorno
+- Añadidos tokens CSRF en todos los formularios
+- Protegidos los endpoints con restricciones de métodos HTTP adecuados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Token CSRF debe ir en todos los formularios
+</t>
+  </si>
+  <si>
+    <t>Validaciones</t>
+  </si>
+  <si>
+    <t>- Revisados y corregidos todos los hotspots de seguridad detectados</t>
+  </si>
+  <si>
+    <t>1. SonarScanner deberá arrojar 0 issues de seguridad</t>
+  </si>
+  <si>
+    <t>Módulo de Pago</t>
+  </si>
+  <si>
+    <t>- Integración API Transbank (WebPay)
+- Mejoras en el flujo del pago, desde la creación de la orden hasta el pago de esta.
+- Creación de modelos serializers, viewsets, y métodos personalizados para Región y Comuna
+- Mejoras en modelos Order y OrderItem</t>
+  </si>
+  <si>
+    <t>1. Habilitar pago WebPay
+2. Cambiar el flujo del pago
+3. Agregar fóraneo Product a OrderItem</t>
+  </si>
+  <si>
+    <t>Refactorización métodos API REST FRAMEWORK</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">- Creación de </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>api_helpers.py</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> donde se gestionan los diferentes métodos para interactuar con la base de datos, delegando la lógica de la API de los views al helper
+- Limpieza de duplicados en views
+- Creación de serializers, viewsets y métodos personalizados para Order y OrderItem
+- Mejora de la lógica para verificar duplicados al agregar o editar registros en los diferentes modelos, apareciendo ahora un mensaje de error en el formulario.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">1. Crear </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>api_helpers.py</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> y gestionar los modelos desde ahí
+2. Hacer un análisis de views.py
+3. Eliminación de duplicados</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">MEJORAS FRONTEND </t>
+  </si>
+  <si>
+    <t>Cambiar el carrusel en home.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Reemplazar la funcionalidad de carrusel por una imagen fija
+- Agregar texto con animación encima del carrusel
+- Cambiar el tamaño para que ocupe el total de la pantalla </t>
+  </si>
+  <si>
+    <t>1. El carrusel tiene un aspecto renovado
+2. El carrusel posee una animación</t>
+  </si>
+  <si>
+    <t>Cambiar cards de producto</t>
+  </si>
+  <si>
+    <t>- Nuevas cards interactivas agregadas a home y refactorización del resto de las cards
+- Agregados incrementadores a las cards</t>
+  </si>
+  <si>
+    <t>1. Las cards poseen interactividad o animaciones
+2. Los incrementadores deben añadir la cantidad de productos especificada al carrito de compras</t>
+  </si>
+  <si>
+    <t>Mejorar el footer actual</t>
+  </si>
+  <si>
+    <t>- Agregar más info de la empresa al footer
+- Agregar íconos de redes sociales
+- Agregar sección de productos
+- Agregar links de acceso</t>
+  </si>
+  <si>
+    <t>1. El footer tiene un aspecto renovado
+2. Los íconos de RRSS llevan al respectivo link
+3. Agregar links de acceso rápido al footer, mejorando la experiencia de usuario</t>
+  </si>
+  <si>
+    <t>Cambiar la estructura de home.html</t>
+  </si>
+  <si>
+    <t>- Agregar cards interactivas
+- Cambiar sección Nosotros
+- Eliminado logo de home
+- Agregadas sección de acceso rápido a catálogo y barriles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. home.html presenta un aspecto renovado
+</t>
+  </si>
+  <si>
+    <t>Mejoras al carrito sidebar</t>
+  </si>
+  <si>
+    <t>- Visualizador para cuando no hay productos</t>
+  </si>
+  <si>
+    <t>1. Cuando no haya productos agregados al carrito, se debe mostrar un mensaje sugiriendo una compra y un botón que lleve al catálogo</t>
+  </si>
+  <si>
+    <t>Actualizar los productos de la base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Reemplazar los productos de la base de datos con productos nuevos
+- Crear imágenes y productos nuevos </t>
+  </si>
+  <si>
+    <t>1. Agregar 6 productos nuevos
+2. Los productos deben ser semejantes entre si, manteniendo una imagen definida de producto</t>
+  </si>
+  <si>
+    <t>Cambiar colores del sitio</t>
+  </si>
+  <si>
+    <t>- Cambiar colores de navbar y colores generales del sitio</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>MEJORAS MÓDULO DE REPORTES</t>
+  </si>
+  <si>
+    <t>Agregar filtro por fechas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Agregar al listado de órdenes un filtro de rango de fechas, donde el usuario pueda visualizar sus órdenes en los tramos de fecha que él desee </t>
+  </si>
+  <si>
+    <t>1. El filtro permite establecer dos fechas, una de comienzo y otra de fin
+2. El filtro muestra los resultados en el periodo seleccionado por el usuario
+3. No se muestra información de días que no pertenezcan al filtro establecido</t>
+  </si>
+  <si>
+    <t>Agregar buscador de producto (OrderItem)</t>
+  </si>
+  <si>
+    <t>- Agregar un campo donde el usuario pueda buscar por nombre y que el sistema filtre la búsqueda basada en el nombre que ingresó el usuario</t>
+  </si>
+  <si>
+    <t>1. El usuario deberá poder escribir lo que el desee y la búsqueda deberá devolver los pedidos donde exista una coincidencia en el campo Order Items</t>
+  </si>
+  <si>
+    <t>Agregar productos más vendidos en tabla</t>
+  </si>
+  <si>
+    <t>- Agregar una tabla que muestre un listado de los productos más vendidos en orden descendiente</t>
+  </si>
+  <si>
+    <t>1. La tabla deberá mostrar los productos en orden de mayor a menor, mostrando primero los productos más vendidos 
+2. Los datos deberán ser actuales</t>
+  </si>
+  <si>
+    <t>Descargar reporte en Excel</t>
+  </si>
+  <si>
+    <t>- Agregar botón que permita al usuario descargar un reporte en Excel con datos estadísticos relevantes para el negocio</t>
+  </si>
+  <si>
+    <t>1. Se descarga un archivo .xslx al ordenador mostrando distintas tablas y visualizadores de información</t>
+  </si>
+  <si>
+    <t>MÓDULO DE DASHBOARD</t>
+  </si>
+  <si>
+    <t>Definir KPIs a medir</t>
+  </si>
+  <si>
+    <t>-Definir cuáles KPIs serán los que mediremos a través de los gráficos</t>
+  </si>
+  <si>
+    <t>1. Establecer KPIs claros y medibles
+2. Los KPIs deben ser relevantes para el negocio</t>
+  </si>
+  <si>
+    <t>Crear gráfico de torta</t>
+  </si>
+  <si>
+    <t>- Crear gráfico de torta interactuable que mida los productos más vendidos, con posiblidad de elegir qué productos mostrar en el gráfico
+- Crear gráfico con Charts de JavaScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. El gráfico debe permitir filtrar los productos que uno desee para poder establecer las comparaciones  que el usuario desee
+</t>
+  </si>
+  <si>
+    <t>Crear gráfico de barras</t>
+  </si>
+  <si>
+    <t>- Crear gráfico de barras que mida el total de dinero gastado por usuario
+- Crear gráfico con Charts de JavaScript</t>
+  </si>
+  <si>
+    <t>1. El gráfico deberá mostrar un listado de usuarios comparando cuánto dinero ha gastado cada uno</t>
+  </si>
+  <si>
+    <t>Crear gráfico de trazabilidad</t>
+  </si>
+  <si>
+    <t>- Crear gráfico de trazabilidad que mida la cantidad de órdenes por mes 
+- Crear gráfico con Charts de JavaScript</t>
+  </si>
+  <si>
+    <t>1. El gráfico deberá mostrar una línea de tiempo anual vs la cantidad de órdenes registradas en un mes en particular</t>
+  </si>
+  <si>
+    <t>Crear visualizador de órdenes</t>
+  </si>
+  <si>
+    <t>- Crear visualizador que muestre el total de órdenes, las órdenes pagadas y las órdenes no pagas</t>
+  </si>
+  <si>
+    <t>1. Los tres datos deben visualizarse de manera correcta</t>
+  </si>
+  <si>
+    <t>IMPLEMENTACIÓN DEL PROYECTO</t>
+  </si>
+  <si>
+    <t>MÓDULO DE PRUEBAS</t>
+  </si>
+  <si>
+    <t>PUESTA EN MARCHA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -211,17 +556,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +596,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9FC5E8"/>
         <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -247,23 +629,73 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -278,6 +710,14 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -521,156 +961,228 @@
       <c r="A2" s="2">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>5.0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="96.75" customHeight="1">
+    <row r="3" ht="156.0" customHeight="1">
       <c r="A3" s="2">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="105.0" customHeight="1">
+      <c r="A5" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9">
         <v>10.0</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="E14" s="5"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="E15" s="5"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -1677,7 +2189,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
+    <col customWidth="1" min="1" max="1" width="24.13"/>
     <col customWidth="1" min="2" max="2" width="27.13"/>
     <col customWidth="1" min="3" max="4" width="12.63"/>
     <col customWidth="1" min="5" max="5" width="34.88"/>
@@ -1685,400 +2197,410 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="82.5" customHeight="1">
-      <c r="A2" s="5">
+    <row r="2" ht="30.75" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" ht="82.5" customHeight="1">
+      <c r="A3" s="11">
         <v>1.0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D3" s="11">
         <v>5.0</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="E3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="78.0" customHeight="1">
-      <c r="A3" s="5">
+    <row r="4" ht="78.0" customHeight="1">
+      <c r="A4" s="11">
         <v>2.0</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="11">
         <v>3.0</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="E4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="56.25" customHeight="1">
-      <c r="A4" s="5">
+    <row r="5" ht="56.25" customHeight="1">
+      <c r="A5" s="11">
         <v>3.0</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="11">
         <v>3.0</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="E5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="76.5" customHeight="1">
-      <c r="A5" s="5">
+    <row r="6" ht="76.5" customHeight="1">
+      <c r="A6" s="11">
         <v>4.0</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D6" s="11">
         <v>3.0</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="E6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="72.0" customHeight="1">
-      <c r="A6" s="5">
+    <row r="7" ht="72.0" customHeight="1">
+      <c r="A7" s="11">
         <v>5.0</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D7" s="11">
         <v>15.0</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="E7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="76.5" customHeight="1">
-      <c r="A7" s="5">
+    <row r="8" ht="76.5" customHeight="1">
+      <c r="A8" s="11">
         <v>6.0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="50.25" customHeight="1">
+      <c r="A9" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="G9" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="36.0" customHeight="1">
+      <c r="A10" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5">
-        <v>16.0</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="50.25" customHeight="1">
-      <c r="A8" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="36.0" customHeight="1">
-      <c r="A9" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -3048,10 +3570,746 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF00FFFF"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="29.25"/>
+    <col customWidth="1" min="2" max="2" width="24.0"/>
+    <col customWidth="1" min="5" max="5" width="29.63"/>
+    <col customWidth="1" min="6" max="6" width="23.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="15">
+        <v>9.0</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="15">
+        <v>11.0</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" ht="85.5" customHeight="1">
+      <c r="A15" s="15">
+        <v>12.0</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="15">
+        <v>13.0</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="15">
+        <v>14.0</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="15">
+        <v>15.0</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="15">
+        <v>16.0</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="15">
+        <v>17.0</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="16">
+        <v>8.0</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="15"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="15"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="23"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28">
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29">
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30">
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31">
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32">
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33">
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34">
+      <c r="E34" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E4"/>
+    <hyperlink r:id="rId2" ref="E8"/>
+    <hyperlink r:id="rId3" ref="F8"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF00FF"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="29.75"/>
+    <col customWidth="1" min="2" max="2" width="24.75"/>
+    <col customWidth="1" min="5" max="5" width="24.88"/>
+    <col customWidth="1" min="6" max="6" width="28.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>